--- a/test-data/Book1.xlsx
+++ b/test-data/Book1.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304129\eclipse-workspace\new\test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304081\eclipse-workspace\Hackathon_Project\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CF6D34-4C15-419E-9236-12FED6F48772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365974A5-6FBA-470D-B696-644AA06EF35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{C557BC57-AE12-486D-A32C-55FB451A9A2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{385F8CF3-E185-45AC-8FB4-90839BD44640}"/>
   </bookViews>
   <sheets>
     <sheet name="services_phonenumbers" sheetId="1" r:id="rId1"/>
     <sheet name="Sub-menu" sheetId="2" r:id="rId2"/>
-    <sheet name="c_services_phonenumbers" sheetId="4" r:id="rId3"/>
-    <sheet name="c_Sub-menu" sheetId="5" r:id="rId4"/>
+    <sheet name="c_services_phonenumbers" sheetId="3" r:id="rId3"/>
+    <sheet name="c_Sub-menu" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+  <si>
+    <t>SERVICES</t>
+  </si>
+  <si>
+    <t>PHONE_NUMBERS</t>
+  </si>
+  <si>
+    <t>Akash Doorstep Car Cleaning Service</t>
+  </si>
+  <si>
+    <t>07947412748</t>
+  </si>
+  <si>
+    <t>K K R Motors ( My TVS Multi Brand All Car Service)</t>
+  </si>
+  <si>
+    <t>07947413237</t>
+  </si>
+  <si>
+    <t>GREAT MAGNUM AUTOZSPA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>H2o Auto Spa</t>
+  </si>
+  <si>
+    <t>07942688327</t>
+  </si>
+  <si>
+    <t>S P V Motors</t>
+  </si>
+  <si>
+    <t>SUB_MENU ITEMS</t>
+  </si>
   <si>
     <t>Sort By</t>
   </si>
@@ -59,316 +95,49 @@
     <t>Jd Verified</t>
   </si>
   <si>
+    <t>Ratings</t>
+  </si>
+  <si>
     <t>Jd Trust</t>
   </si>
   <si>
     <t>All Filters</t>
   </si>
   <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>Sub-menu_items</t>
   </si>
   <si>
-    <t>Phone_Numbers</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ratings</t>
-  </si>
-  <si>
     <t>5k Car Care</t>
   </si>
   <si>
+    <t>07942700176</t>
+  </si>
+  <si>
     <t>Vasu Motors</t>
   </si>
   <si>
+    <t>07942700371</t>
+  </si>
+  <si>
     <t>F1 Car Wash And Detailing</t>
   </si>
   <si>
-    <t>5K Car Care</t>
-  </si>
-  <si>
-    <t>07942699492</t>
-  </si>
-  <si>
-    <t>07942699590</t>
-  </si>
-  <si>
-    <t>07942699517</t>
-  </si>
-  <si>
-    <t>07048539667</t>
-  </si>
-  <si>
-    <t>07942699602</t>
-  </si>
-  <si>
-    <t>07947429551</t>
-  </si>
-  <si>
-    <t>07947120936</t>
-  </si>
-  <si>
-    <t>07947121012</t>
-  </si>
-  <si>
-    <t>07947429545</t>
-  </si>
-  <si>
-    <t>Zion Car Care</t>
-  </si>
-  <si>
-    <t>07947426547</t>
-  </si>
-  <si>
-    <t>07947421826</t>
-  </si>
-  <si>
-    <t>07947430340</t>
-  </si>
-  <si>
-    <t>Chennai Car Care</t>
-  </si>
-  <si>
-    <t>07947430151</t>
-  </si>
-  <si>
-    <t>07947430660</t>
-  </si>
-  <si>
-    <t>07947423851</t>
-  </si>
-  <si>
-    <t>07947430686</t>
-  </si>
-  <si>
-    <t>07947423816</t>
-  </si>
-  <si>
-    <t>Aaa Cool System</t>
-  </si>
-  <si>
-    <t>07947423902</t>
-  </si>
-  <si>
-    <t>Adit Engineering</t>
-  </si>
-  <si>
-    <t>07947430714</t>
-  </si>
-  <si>
-    <t>Jose Service Point</t>
-  </si>
-  <si>
-    <t>07947425149</t>
-  </si>
-  <si>
-    <t>07947121891</t>
-  </si>
-  <si>
-    <t>07947424105</t>
-  </si>
-  <si>
-    <t>07947430662</t>
-  </si>
-  <si>
-    <t>07947430980</t>
-  </si>
-  <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
-    <t>PHONE_NUMBERS</t>
-  </si>
-  <si>
-    <t>07947433812</t>
-  </si>
-  <si>
-    <t>07947433813</t>
-  </si>
-  <si>
-    <t>07947433576</t>
-  </si>
-  <si>
-    <t>07947434061</t>
-  </si>
-  <si>
-    <t>SUB_MENU ITEMS</t>
-  </si>
-  <si>
-    <t>07947434394</t>
-  </si>
-  <si>
-    <t>07947434496</t>
-  </si>
-  <si>
-    <t>07947434651</t>
-  </si>
-  <si>
-    <t>07947434598</t>
-  </si>
-  <si>
-    <t>07947435270</t>
-  </si>
-  <si>
-    <t>07947127463</t>
-  </si>
-  <si>
-    <t>07947435212</t>
-  </si>
-  <si>
-    <t>07947435172</t>
-  </si>
-  <si>
-    <t>07947151228</t>
-  </si>
-  <si>
-    <t>07947107252</t>
-  </si>
-  <si>
-    <t>07947152484</t>
-  </si>
-  <si>
-    <t>07947107350</t>
-  </si>
-  <si>
-    <t>07947107284</t>
-  </si>
-  <si>
-    <t>07947152476</t>
-  </si>
-  <si>
-    <t>07947150554</t>
-  </si>
-  <si>
-    <t>07947149237</t>
-  </si>
-  <si>
-    <t>07947107942</t>
-  </si>
-  <si>
-    <t>07947103205</t>
-  </si>
-  <si>
-    <t>07947108509</t>
-  </si>
-  <si>
-    <t>07947126927</t>
-  </si>
-  <si>
-    <t>07947103163</t>
-  </si>
-  <si>
-    <t>07947108183</t>
+    <t>07942700384</t>
   </si>
   <si>
     <t>Route69 Garage</t>
   </si>
   <si>
+    <t>07942700451</t>
+  </si>
+  <si>
     <t>Ramesh</t>
-  </si>
-  <si>
-    <t>07947413500</t>
-  </si>
-  <si>
-    <t>07947103754</t>
-  </si>
-  <si>
-    <t>07947103556</t>
-  </si>
-  <si>
-    <t>07947103671</t>
-  </si>
-  <si>
-    <t>07947104162</t>
-  </si>
-  <si>
-    <t>07947118795</t>
-  </si>
-  <si>
-    <t>07947118233</t>
-  </si>
-  <si>
-    <t>07947118606</t>
-  </si>
-  <si>
-    <t>07947110460</t>
-  </si>
-  <si>
-    <t>AUTOBOT Detailing and Accessories &amp; Painting Works</t>
-  </si>
-  <si>
-    <t>07947127264</t>
-  </si>
-  <si>
-    <t>Sagar Auto Legion</t>
-  </si>
-  <si>
-    <t>09972910598</t>
-  </si>
-  <si>
-    <t>National Car Care</t>
-  </si>
-  <si>
-    <t>07947127453</t>
-  </si>
-  <si>
-    <t>Perfect Car Detailing</t>
-  </si>
-  <si>
-    <t>09972322084</t>
-  </si>
-  <si>
-    <t>Sonu Washing Center</t>
-  </si>
-  <si>
-    <t>07947127952</t>
-  </si>
-  <si>
-    <t>07947133165</t>
-  </si>
-  <si>
-    <t>07947134028</t>
-  </si>
-  <si>
-    <t>07947133328</t>
-  </si>
-  <si>
-    <t>Deals</t>
-  </si>
-  <si>
-    <t>07947412003</t>
-  </si>
-  <si>
-    <t>07947412354</t>
-  </si>
-  <si>
-    <t>07947412261</t>
-  </si>
-  <si>
-    <t>07947412355</t>
-  </si>
-  <si>
-    <t>07947103583</t>
-  </si>
-  <si>
-    <t>07947103515</t>
-  </si>
-  <si>
-    <t>07947104047</t>
-  </si>
-  <si>
-    <t>07947103989</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -406,9 +175,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{067149E9-34B6-48CF-8185-5B2BFD5986E3}"/>
-  </tableStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -716,61 +483,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06B57F2-A99D-4D3B-BF9F-73BC20A98710}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2AFC05-250E-4E18-A26D-B5E587C8190D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -779,63 +544,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE17B40-D64D-4895-B113-098A0AD5FB5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879680A7-2DDA-4B82-BEB6-C75B1EB06682}">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s" s="0">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -844,59 +607,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD860FA1-24F7-4C3E-B874-54104CBB8D2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C391903-2288-4C93-A6A2-102AA52E8724}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>107</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -905,68 +668,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C34F1F-2ABB-43FB-BEBB-5EE049F9FE3E}">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252EBA93-A260-4D18-B327-9B01337E09E9}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
